--- a/Doo-Doc/Seccion # 6/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a29f2ced7e34d5f/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/DOO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BDAEA464-830F-47F9-8E52-494A09C4BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC676E85-6BC5-48F0-83B6-9AB511C5EDED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF46D00-0092-4216-96AE-4DDF32425E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Listado Objetos de Dominio" sheetId="3" r:id="rId3"/>
     <sheet name="Reserva" sheetId="4" r:id="rId4"/>
     <sheet name="Residente" sheetId="5" r:id="rId5"/>
-    <sheet name="ZonasComun" sheetId="6" r:id="rId6"/>
+    <sheet name="ZonaComun" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -469,8 +469,866 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Usuario 207</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A46A1B17-8777-40AC-A5E9-3A4D12EFB86A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del atributo (recomendación en lowerCamelCase)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B1D0C228-04E1-4200-9B58-D762CA142646}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Carácter: Sólo un carácter
+Texto: Combinación de letras y espacios
+Alfanumérico: Combinación de cualquier tipo de carácter
+Lógico: Verdadero/Falso
+Fecha: Sólo para día, mes y año
+Fecha-Tiempo: Para día, mes, año, horas, minutos y segundos
+Numérico entero: Números enteros
+Numérico decimal: Números de coma flotante</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{88B125E1-9399-4A6E-934D-982A3BBFBD1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sólo aplica para datos que son Carácter, Texto y Alfanumérico. Es un dato opcional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{91AFA30A-3EFD-4A59-B3F4-951598A72C98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usuario 207:
+Sólo aplica para datos que son Carácter, Texto y Alfanumérico. Es un dato opcional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A9547EA-ADDE-486B-8925-C20939C152BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sólo aplica para datos decimales.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{E344ECBE-11FB-484B-A09B-9BC885F87716}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hacia arriba
+Hacia abajo
+Truncar con cuantos decimales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{516C2185-0737-4D31-979A-F84CE5A93E1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rango inicial válido para los datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{F777279B-8979-434B-8C14-AC05172D3641}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usuario 207:
+Hace referencia al rango final válido para un dato</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{12E988B5-A97A-4FEF-BD43-8A86284C3148}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Datos válidos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{CD86CCC9-9D33-4294-896D-11A7D99ED614}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Es el valor que toma el dato, en caso de que no sea proporcionado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{061BA988-4AFC-49BF-8DA3-1BB5CDFA0646}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Qué regla debe cumplir el dato</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{D07200CE-F5E0-49DB-89BD-970AC9D03974}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato será generado de forma automática o no</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{1F6139A6-8B37-4862-ACE3-68FC49A209B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato se puede computar u obtener a partir del cálculo de otros atributos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{A52F7260-C243-4D18-8F66-862BE4DA8654}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato es requerido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{EEB46C59-3126-4F22-A3FF-73D9EBF2E1C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato por su importancia y criticidad, debe ser custodiado de forma especial.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C3AEF9BA-3475-4D9C-8EEC-C8B4B4A6FF68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Es el atributo que hace que cada conjunto de datos de un objeto de dominio sean únicos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{03272353-F9F0-4A4F-8D8D-8A59C8A05673}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+De forma clara y en términos de negocio, describe a qué hace referencia el atributo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Usuario 207</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D1E95CCB-6E79-4D6F-B26E-162812F3DCB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del atributo (recomendación en lowerCamelCase)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{14F11FBB-F809-4F50-975F-58E039E8AEB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Carácter: Sólo un carácter
+Texto: Combinación de letras y espacios
+Alfanumérico: Combinación de cualquier tipo de carácter
+Lógico: Verdadero/Falso
+Fecha: Sólo para día, mes y año
+Fecha-Tiempo: Para día, mes, año, horas, minutos y segundos
+Numérico entero: Números enteros
+Numérico decimal: Números de coma flotante</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{A6BC6A85-245D-4067-A57E-1C3EA1638AF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sólo aplica para datos que son Carácter, Texto y Alfanumérico. Es un dato opcional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{6236EC6D-C1A1-4136-9C3A-549EEB268FA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usuario 207:
+Sólo aplica para datos que son Carácter, Texto y Alfanumérico. Es un dato opcional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{920372AD-6796-4418-9C1D-BED4A82B7FEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sólo aplica para datos decimales.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{182CDB4C-2848-4ED5-BCEB-1FC045C8C77E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hacia arriba
+Hacia abajo
+Truncar con cuantos decimales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{001009D2-4933-4A48-8685-09B7E7C16A8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rango inicial válido para los datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{8BE4D76C-13A3-4A05-82C9-6F9D9ABBF364}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usuario 207:
+Hace referencia al rango final válido para un dato</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{242AC937-B947-4F6F-94FE-0E161B551C16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Datos válidos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{A63785D4-7AD9-408D-A8AB-69B73B8F425C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Es el valor que toma el dato, en caso de que no sea proporcionado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{281716A2-D330-4CE1-A213-C14AC22F9162}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Qué regla debe cumplir el dato</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{25D726BA-BDA8-4281-8E13-E745FA2C768F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato será generado de forma automática o no</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{F4BE0375-695D-4192-8CCA-D96A3AB4CFEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato se puede computar u obtener a partir del cálculo de otros atributos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{304FE1FC-2A3E-4E42-A9C6-3960F7703A4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato es requerido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{B2E97FE1-5E9E-4CDE-9CD6-4536954DFF1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica si el dato por su importancia y criticidad, debe ser custodiado de forma especial.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{ACEC44C2-31AF-4BA2-809F-443ECC1478C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Es el atributo que hace que cada conjunto de datos de un objeto de dominio sean únicos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{38A9B15B-1DD6-4CA7-BE3C-381156C15EFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario 207:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+De forma clara y en términos de negocio, describe a qué hace referencia el atributo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -643,18 +1501,6 @@
     <t>Objeto de dominio que representa a cada una de las reservas que son solicitadas dentro de un conjunto residencial donde se ubica una zona comun la cual es la que esa siendo reservada por un residente.</t>
   </si>
   <si>
-    <t>Objeto de dominio que representa a cada uno de los residentes que son los que viven dentro de un conjunto residencial para generar reservas .</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos .</t>
-  </si>
-  <si>
-    <t>idResidente</t>
-  </si>
-  <si>
-    <t>idZonaComun</t>
-  </si>
-  <si>
     <t>fechaReserva</t>
   </si>
   <si>
@@ -748,14 +1594,113 @@
     <t>No es posible tener más de una reserva con el mismo numero de identificación.</t>
   </si>
   <si>
-    <t>PENDIENTE POR MIS COMPAÑEROS</t>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Sólo letras y espacios</t>
+  </si>
+  <si>
+    <t>Quitar espacios en blanco al inicio y al final, y dejar sólo un espacio entre palabras</t>
+  </si>
+  <si>
+    <t>telefonoCelular</t>
+  </si>
+  <si>
+    <t>sólo números enteros</t>
+  </si>
+  <si>
+    <t>Quitar espacios en blanco al inicio, al final, y entre números</t>
+  </si>
+  <si>
+    <t>Representa el número de contacto de un residente determinado.</t>
+  </si>
+  <si>
+    <t>Representa el nombre de un residente determinado.</t>
+  </si>
+  <si>
+    <t>Tipo inmueble</t>
+  </si>
+  <si>
+    <t>Representa un objeto tipo inmueble</t>
+  </si>
+  <si>
+    <t>identificador de residente</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un residente con el mismo numero de identificación.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada uno de los residentes que son los que viven dentro de un conjunto residencial para generar reservas.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</t>
+  </si>
+  <si>
+    <t>Representa el nombre de una zona común determinada.</t>
+  </si>
+  <si>
+    <t>xxxxxxxx-xxxx-xxxx-xxxx-xxxxxxxxxxxx, donde cada x representa un dígito del 0 al 9 o una letra de la "A" a la "F".</t>
+  </si>
+  <si>
+    <t>Sólo letras y espacios.</t>
+  </si>
+  <si>
+    <t>Sólo un valor lógico (Verdadero o Falso).</t>
+  </si>
+  <si>
+    <t>Representa el estado de disponibilidad de una zona común.</t>
+  </si>
+  <si>
+    <t>capacidad</t>
+  </si>
+  <si>
+    <t>disponibilidad</t>
+  </si>
+  <si>
+    <t>Sólo un numero entero</t>
+  </si>
+  <si>
+    <t>Representa la capacidad permitida para una zona común.</t>
+  </si>
+  <si>
+    <t>horaApertura</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
+    <t>Representa la hora de apertura de una zona común.</t>
+  </si>
+  <si>
+    <t>horaCierre</t>
+  </si>
+  <si>
+    <t>Representa la hora de cierre de una zona común.</t>
+  </si>
+  <si>
+    <t>identificador de zona común</t>
+  </si>
+  <si>
+    <t>No es posible tener más de una zona común con el mismo numero de identificación.</t>
+  </si>
+  <si>
+    <t>Residente reserva ZonaComun determinada a fecha determinada</t>
+  </si>
+  <si>
+    <t>No es posible tener la misma zona común reservada varias veces en una misma fecha</t>
+  </si>
+  <si>
+    <t>No es posible tener diferentes zonas comúnes reservadas en una misma fecha</t>
+  </si>
+  <si>
+    <t>Inmueble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,8 +1761,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,8 +1825,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1038,20 +1997,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,93 +2105,231 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,146 +2339,65 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1640,94 +2737,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C999BC2-C521-4DCD-A3E9-6970479B183D}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1742,11 +2839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2294C-BB20-492E-9D90-F16885EF96BB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1756,84 +2853,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AED8CF-32F6-460C-B344-4096984F204E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="str">
+      <c r="D3" s="13" t="str">
         <f>$B$1</f>
         <v>Gestión Reservas</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="str">
+      <c r="D4" s="13" t="str">
         <f>$B$1</f>
         <v>Gestión Reservas</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="13" t="str">
         <f>$B$1</f>
         <v>Gestión Reservas</v>
       </c>
@@ -1864,787 +2961,859 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B68ADC-CCC4-42ED-9D19-95850731FE60}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21" t="str">
+      <c r="B2" s="81" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="82" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a cada una de las reservas que son solicitadas dentro de un conjunto residencial donde se ubica una zona comun la cual es la que esa siendo reservada por un residente.</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="26" t="str">
-        <f>A21</f>
+      <c r="R4" s="19" t="str">
+        <f>A27</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="27" t="str">
-        <f>A22</f>
+      <c r="S4" s="20" t="str">
+        <f>A28</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="28" t="str">
-        <f>A23</f>
+      <c r="T4" s="21" t="str">
+        <f>A29</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="29" t="str">
-        <f>A24</f>
+      <c r="U4" s="22" t="str">
+        <f>A30</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="24">
         <v>32</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="24">
         <v>32</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="M5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="24">
+        <v>6</v>
+      </c>
+      <c r="D11" s="24">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="B12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="38"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="38"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="O12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="38"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="32" t="s">
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>500</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="32" t="s">
+      <c r="B17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31">
-        <v>500</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="C17" s="102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="101" t="str">
+        <f>A6</f>
+        <v>Residente</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="101" t="str">
+        <f>A7</f>
+        <v>ZonaComun</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101" t="str">
+        <f>A9</f>
+        <v>fechaUso</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="103" t="str">
+        <f>A6</f>
+        <v>Residente</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="103" t="str">
+        <f>A7</f>
+        <v>ZonaComun</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="104" t="str">
+        <f>A9</f>
+        <v>fechaUso</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="71"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="87"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="50"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="53" t="s">
+      <c r="K26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="52" t="s">
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="53" t="s">
+      <c r="R26" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S20" s="54" t="s">
+      <c r="S26" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="68"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="46"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="78"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="52"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
+  <mergeCells count="27">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{872F1B90-753A-4567-B7E0-F963E4885CFE}"/>
-    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{96028159-E62A-4427-AF0A-44F7020D4C1C}"/>
+    <hyperlink ref="I30" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{96028159-E62A-4427-AF0A-44F7020D4C1C}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{B75DAC14-250B-4E3B-B520-AB93689FE407}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{AF6E5F78-78B2-490C-AFD1-DCD8E185D14E}"/>
     <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{6FF77357-DA02-40EC-A804-F56F7DD1FA41}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{E70B60A3-7339-4ECA-8F42-6209F5B2DD9A}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{3CCC1F6B-B284-41A3-8E30-E2B73F01AB49}"/>
-    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{9832566C-3941-4045-8402-97C0F3B00034}"/>
+    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{E70B60A3-7339-4ECA-8F42-6209F5B2DD9A}"/>
+    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{3CCC1F6B-B284-41A3-8E30-E2B73F01AB49}"/>
+    <hyperlink ref="A30:B30" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{9832566C-3941-4045-8402-97C0F3B00034}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{AFC82A9B-C9C4-4E95-8471-7BF22B87E253}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{51773B00-DF91-49B5-A5F9-796AF24DB2EF}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BCB3B9EE-CFE9-499F-8792-DC5504DA5004}"/>
+    <hyperlink ref="A29:B29" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BCB3B9EE-CFE9-499F-8792-DC5504DA5004}"/>
     <hyperlink ref="C17" location="Reserva!B2" display="Reserva" xr:uid="{301E3BD1-2FBB-41FD-BA8C-0B7BFC051715}"/>
+    <hyperlink ref="C18" location="Residente!B2" display="Residente!B2" xr:uid="{8984EC01-54BD-4953-9ACE-10491D66D25F}"/>
+    <hyperlink ref="C19" location="ZonaComun!B2" display="ZonaComun!B2" xr:uid="{290FB85E-90ED-4D88-9D4E-84495A758834}"/>
+    <hyperlink ref="C20" location="Reserva!A9" display="Reserva!A9" xr:uid="{915FE8E7-C71E-4E4C-84DD-1BAFE7EEE77E}"/>
+    <hyperlink ref="C21" location="Residente!B2" display="Residente!B2" xr:uid="{A78AFFD3-52DA-4BE5-B1A8-C87B8E9EFDBD}"/>
+    <hyperlink ref="C22" location="Reserva!B2" display="Reserva!B2" xr:uid="{6680155B-72C0-4FA5-8B2F-CE94B4918DF7}"/>
+    <hyperlink ref="C23" location="Reserva!A9" display="Reserva!A9" xr:uid="{D735BFD0-5F1A-4677-8D04-9E5C3BBE7BDD}"/>
+    <hyperlink ref="B7" location="ZonaComun!B2" display="ZonaComun" xr:uid="{3C98B875-6A4C-421E-B86F-51F7822518A4}"/>
+    <hyperlink ref="B6" location="Residente!B2" display="Residente" xr:uid="{45EAD413-9644-49E2-952F-5165F0473D56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2655,7 +3824,7 @@
           <x14:formula1>
             <xm:f>Valores!$A$7:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B13</xm:sqref>
+          <xm:sqref>B5 B8:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2664,101 +3833,1285 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37253BB3-D41A-4819-AE6B-7ECDBED96519}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37253BB3-D41A-4819-AE6B-7ECDBED96519}">
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="81" t="str">
+        <f>'Listado Objetos de Dominio'!A4</f>
+        <v>Residente</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="82" t="str">
+        <f>'Listado Objetos de Dominio'!B4</f>
+        <v>Objeto de dominio que representa a cada uno de los residentes que son los que viven dentro de un conjunto residencial para generar reservas.</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="19" t="str">
+        <f>A16</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="S4" s="20" t="str">
+        <f>A17</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="T4" s="21" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="U4" s="22" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24">
+        <v>32</v>
+      </c>
+      <c r="D5" s="24">
+        <v>32</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>50</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="71"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="87"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D5"/>
+  <mergeCells count="23">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A203049D-4A94-4ED6-B725-631FC8E16A5D}"/>
+    <hyperlink ref="I19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{AB7B9B6F-4CEE-4A6B-8EE2-436B11DC60B1}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{1E7DD677-0C31-4EA4-A1A8-208568C84158}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{249DFDC1-E51F-4D73-938F-1CC4CA7C38FE}"/>
+    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{AF7B2DA8-3DA2-4A8C-A9C5-0CD85649E797}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{EE03E1A2-6B71-4B5E-A162-ED2E61938759}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{36146D35-C965-4D36-A4DB-5ADCE71D0C80}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{15AFCFF5-4EE1-4597-9983-EC91E017C05D}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{9A79657D-B46A-4DD6-BBE9-9E0BC5179DE1}"/>
+    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A1679FC4-EB1B-4BEB-92C3-BA8C3FC1497D}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{866FEE97-B452-4D17-9242-0C99FCBF4F17}"/>
+    <hyperlink ref="C12" location="Residente!B2" display="Residente" xr:uid="{9DE88B15-D357-4D36-AC95-0E93E3FC0F17}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B22A6ACD-C1B3-41B8-8C94-65A38917798C}">
+          <x14:formula1>
+            <xm:f>Valores!$A$7:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87E743-BFE3-415C-A07F-E9D05CC8A77D}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87E743-BFE3-415C-A07F-E9D05CC8A77D}">
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G43:G44"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="81" t="str">
+        <f>'Listado Objetos de Dominio'!A5</f>
+        <v>ZonaComun</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="82" t="str">
+        <f>'Listado Objetos de Dominio'!B5</f>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="19" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="S4" s="20" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="T4" s="21" t="str">
+        <f>A20</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="U4" s="22" t="str">
+        <f>A21</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24">
+        <v>32</v>
+      </c>
+      <c r="D5" s="24">
+        <v>32</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>50</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="88"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="71"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="87"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D5"/>
+  <mergeCells count="23">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0AFD9DDF-623F-4311-AA6E-46B54930F082}"/>
+    <hyperlink ref="I21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{4EDB43E5-BE17-41D8-8800-52F51FD93854}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{BC9A4B71-B052-4F46-A1BC-C1E99B8FD050}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{792126A7-6EA0-4311-AA5A-E15D45829379}"/>
+    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{C156A639-52D2-47A9-8514-D3BAEAD5DD19}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{9CA994E3-CD44-47C6-9AE5-A79AAAC3F615}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{04FA01FC-DB5C-42E7-90FE-0D4E7C548C45}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{48F18C83-A215-4E58-9C21-2FCD198B8541}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{0DAF9702-1DC9-4A41-BC2E-051C5CEB8F30}"/>
+    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{6596B9E2-97B2-4BF6-94F9-CB797BE42B45}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{4B49971C-799B-4D6F-A757-20EEF23D997E}"/>
+    <hyperlink ref="C14" location="ZonasComun!B2" display="ZonaComun" xr:uid="{9DEE591E-9E01-4642-849A-8CA3FB7B8735}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81A9FB75-4048-4362-8022-586457478CBB}">
+          <x14:formula1>
+            <xm:f>Valores!$A$7:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Doo-Doc/Seccion # 6/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/DOO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF46D00-0092-4216-96AE-4DDF32425E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AEDAC-E308-4AD9-8CC2-1FB7C4C46E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -2255,6 +2255,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2267,6 +2285,96 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2290,114 +2398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2416,6 +2416,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0830D4DE-C611-5008-8E3F-CAB5D03970A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207817" y="196734"/>
+          <a:ext cx="9362903" cy="4932387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2738,7 +2793,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2748,10 +2803,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2839,13 +2894,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2294C-BB20-492E-9D90-F16885EF96BB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2870,11 +2926,11 @@
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2963,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B68ADC-CCC4-42ED-9D19-95850731FE60}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2995,73 +3051,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="73" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="74" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a cada una de las reservas que son solicitadas dentro de un conjunto residencial donde se ubica una zona comun la cual es la que esa siendo reservada por un residente.</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3181,7 +3237,7 @@
       <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="24"/>
@@ -3222,7 +3278,7 @@
       <c r="A7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="63" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="24"/>
@@ -3514,11 +3570,11 @@
       <c r="U13" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
@@ -3538,108 +3594,108 @@
       <c r="B17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="101" t="str">
+      <c r="C18" s="59" t="str">
         <f>A6</f>
         <v>Residente</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="101" t="str">
+      <c r="A19" s="83"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="59" t="str">
         <f>A7</f>
         <v>ZonaComun</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101" t="str">
+      <c r="A20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="59" t="str">
         <f>A9</f>
         <v>fechaUso</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="103" t="str">
+      <c r="C21" s="61" t="str">
         <f>A6</f>
         <v>Residente</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="92"/>
-      <c r="C22" s="103" t="str">
+      <c r="C22" s="61" t="str">
         <f>A7</f>
         <v>ZonaComun</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="104" t="str">
+      <c r="A23" s="90"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="62" t="str">
         <f>A9</f>
         <v>fechaUso</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70" t="s">
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70" t="s">
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70" t="s">
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70" t="s">
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="71"/>
+      <c r="S25" s="94"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="38" t="s">
         <v>43</v>
       </c>
@@ -3652,12 +3708,12 @@
       <c r="K26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
       <c r="P26" s="38" t="s">
         <v>45</v>
       </c>
@@ -3672,92 +3728,92 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="13"/>
       <c r="I27" s="40"/>
       <c r="J27" s="12"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="43"/>
       <c r="I28" s="41"/>
       <c r="J28" s="42"/>
       <c r="K28" s="44"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="45"/>
       <c r="R28" s="45"/>
       <c r="S28" s="46"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
       <c r="H29" s="48"/>
       <c r="I29" s="49"/>
       <c r="J29" s="47"/>
       <c r="K29" s="50"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
       <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="54"/>
       <c r="I30" s="55"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="56"/>
       <c r="R30" s="56"/>
@@ -3765,6 +3821,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="L28:O28"/>
@@ -3781,17 +3848,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="L30:O30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{872F1B90-753A-4567-B7E0-F963E4885CFE}"/>
@@ -3868,73 +3924,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="73" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="74" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada uno de los residentes que son los que viven dentro de un conjunto residencial para generar reservas.</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -4183,11 +4239,11 @@
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -4213,46 +4269,46 @@
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70" t="s">
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70" t="s">
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70" t="s">
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="71"/>
+      <c r="S14" s="94"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="38" t="s">
         <v>43</v>
       </c>
@@ -4265,12 +4321,12 @@
       <c r="K15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
       <c r="P15" s="38" t="s">
         <v>45</v>
       </c>
@@ -4285,92 +4341,92 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="13"/>
       <c r="I16" s="40"/>
       <c r="J16" s="12"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="43"/>
       <c r="I17" s="41"/>
       <c r="J17" s="42"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
       <c r="S17" s="46"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
       <c r="H18" s="48"/>
       <c r="I18" s="49"/>
       <c r="J18" s="47"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
       <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
       <c r="J19" s="53"/>
       <c r="K19" s="54"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="56"/>
       <c r="R19" s="56"/>
@@ -4378,6 +4434,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="L16:O16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="L19:O19"/>
@@ -4387,20 +4457,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A203049D-4A94-4ED6-B725-631FC8E16A5D}"/>
@@ -4437,7 +4493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87E743-BFE3-415C-A07F-E9D05CC8A77D}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4469,73 +4525,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="73" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="74" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -4863,14 +4919,14 @@
       <c r="U10" s="31"/>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="88"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -4896,46 +4952,46 @@
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70" t="s">
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70" t="s">
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70" t="s">
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70" t="s">
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="71"/>
+      <c r="S16" s="94"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="38" t="s">
         <v>43</v>
       </c>
@@ -4948,12 +5004,12 @@
       <c r="K17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="72" t="s">
+      <c r="L17" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
       <c r="P17" s="38" t="s">
         <v>45</v>
       </c>
@@ -4968,92 +5024,92 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
       <c r="H18" s="13"/>
       <c r="I18" s="40"/>
       <c r="J18" s="12"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="43"/>
       <c r="I19" s="41"/>
       <c r="J19" s="42"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="46"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="48"/>
       <c r="I20" s="49"/>
       <c r="J20" s="47"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="51"/>
       <c r="R20" s="51"/>
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="54"/>
       <c r="I21" s="55"/>
       <c r="J21" s="53"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
@@ -5061,15 +5117,10 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A18:B18"/>
@@ -5080,10 +5131,15 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0AFD9DDF-623F-4311-AA6E-46B54930F082}"/>

--- a/Doo-Doc/Seccion # 6/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo dominio Enriquesido Reserva-VistusResidencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AEDAC-E308-4AD9-8CC2-1FB7C4C46E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C12988-BCAF-4601-9DA7-CD6D8789AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{CE244A66-670B-491B-9304-41B91E991E26}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="Residente" sheetId="5" r:id="rId5"/>
     <sheet name="ZonaComun" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -475,7 +478,7 @@
     <author>Usuario 207</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A46A1B17-8777-40AC-A5E9-3A4D12EFB86A}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{5B1ADF3C-175F-458A-87BA-3514EF475BB9}">
       <text>
         <r>
           <rPr>
@@ -499,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B1D0C228-04E1-4200-9B58-D762CA142646}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8C59FA04-8F83-4DA3-93B4-07A1C9EF36E3}">
       <text>
         <r>
           <rPr>
@@ -530,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{88B125E1-9399-4A6E-934D-982A3BBFBD1B}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A3E5183-7205-4D37-8BED-9ABBE75960A4}">
       <text>
         <r>
           <rPr>
@@ -554,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{91AFA30A-3EFD-4A59-B3F4-951598A72C98}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{1E266E20-D498-4BF5-B455-352F62D45460}">
       <text>
         <r>
           <rPr>
@@ -579,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A9547EA-ADDE-486B-8925-C20939C152BE}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{6F775C70-86AA-46B2-93A6-FE6EE12F1B36}">
       <text>
         <r>
           <rPr>
@@ -603,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{E344ECBE-11FB-484B-A09B-9BC885F87716}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{FF023C59-6DDC-4353-8C31-874D9A6EB06A}">
       <text>
         <r>
           <rPr>
@@ -629,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{516C2185-0737-4D31-979A-F84CE5A93E1E}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{9CAA5AB0-8CC8-4BAD-9500-DCC082392B9C}">
       <text>
         <r>
           <rPr>
@@ -653,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{F777279B-8979-434B-8C14-AC05172D3641}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{42E3EF1C-FDBA-497E-8B7A-5173DF79F990}">
       <text>
         <r>
           <rPr>
@@ -678,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{12E988B5-A97A-4FEF-BD43-8A86284C3148}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{CA4DFCAB-2DA5-4DE9-9998-F9651D9D23BA}">
       <text>
         <r>
           <rPr>
@@ -702,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{CD86CCC9-9D33-4294-896D-11A7D99ED614}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{69701B36-B369-49A0-A776-64AFD379E9C2}">
       <text>
         <r>
           <rPr>
@@ -726,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{061BA988-4AFC-49BF-8DA3-1BB5CDFA0646}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{472B9FD5-8DF4-47DC-A513-1ED5CF41383A}">
       <text>
         <r>
           <rPr>
@@ -750,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{D07200CE-F5E0-49DB-89BD-970AC9D03974}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{C52844BE-949C-4605-9E4F-CAFB16C61D60}">
       <text>
         <r>
           <rPr>
@@ -774,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{1F6139A6-8B37-4862-ACE3-68FC49A209B6}">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{4635E34B-EC91-4D31-B251-1D1FF2A1B974}">
       <text>
         <r>
           <rPr>
@@ -798,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{A52F7260-C243-4D18-8F66-862BE4DA8654}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{DF2AFACA-50FB-4E81-8120-6F50738E3637}">
       <text>
         <r>
           <rPr>
@@ -822,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{EEB46C59-3126-4F22-A3FF-73D9EBF2E1C4}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{24482D90-531F-4857-A6B8-8B8DEBA10D2E}">
       <text>
         <r>
           <rPr>
@@ -846,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C3AEF9BA-3475-4D9C-8EEC-C8B4B4A6FF68}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{B5F1983B-9D13-4F1A-9F07-E03C8C7988A8}">
       <text>
         <r>
           <rPr>
@@ -870,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{03272353-F9F0-4A4F-8D8D-8A59C8A05673}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{3F350BD7-0366-4DBA-A660-81BA9DB24F93}">
       <text>
         <r>
           <rPr>
@@ -904,7 +907,7 @@
     <author>Usuario 207</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D1E95CCB-6E79-4D6F-B26E-162812F3DCB3}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B9EBC54C-25E1-4ED0-A3D7-26032CB978BA}">
       <text>
         <r>
           <rPr>
@@ -928,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{14F11FBB-F809-4F50-975F-58E039E8AEB8}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{4A43541B-CDA5-4F60-8C2E-5CF07AFAA88E}">
       <text>
         <r>
           <rPr>
@@ -959,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{A6BC6A85-245D-4067-A57E-1C3EA1638AF1}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C21E2366-91A2-4964-8B6A-56920F9668EF}">
       <text>
         <r>
           <rPr>
@@ -983,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{6236EC6D-C1A1-4136-9C3A-549EEB268FA4}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{4F62879A-827F-4CF1-8433-86D39E15AE3D}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{920372AD-6796-4418-9C1D-BED4A82B7FEB}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{012F30C3-4452-406E-B30C-A7FCBD716926}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{182CDB4C-2848-4ED5-BCEB-1FC045C8C77E}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DFEF94E-C640-4B8C-AFEE-FFFFC21DA50E}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{001009D2-4933-4A48-8685-09B7E7C16A8C}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{1D50ACB3-6A20-4AF8-8221-454759730980}">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{8BE4D76C-13A3-4A05-82C9-6F9D9ABBF364}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{650B64D1-3E59-4FC1-907E-CEE11168036B}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{242AC937-B947-4F6F-94FE-0E161B551C16}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{BFE8E514-1BA6-46BB-BD77-9E89A24CA0E1}">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{A63785D4-7AD9-408D-A8AB-69B73B8F425C}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{E4CFD5D5-1215-4798-A2B2-A13A7E0D2E35}">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{281716A2-D330-4CE1-A213-C14AC22F9162}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{3CEDBA7B-A2EB-4020-B18B-D118A91E5476}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{25D726BA-BDA8-4281-8E13-E745FA2C768F}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{D38574BC-115C-4E64-9A22-F259BEA99688}">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{F4BE0375-695D-4192-8CCA-D96A3AB4CFEA}">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{AD5A6D4E-3ED8-4526-831C-28A908B96755}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{304FE1FC-2A3E-4E42-A9C6-3960F7703A4B}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{A5942F16-7396-4BA0-88E7-56130BDBC711}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{B2E97FE1-5E9E-4CDE-9CD6-4536954DFF1C}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{417F0E27-D313-4C49-80C5-95F17A6A5090}">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{ACEC44C2-31AF-4BA2-809F-443ECC1478C2}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{8728F968-0ACB-40C6-A064-15010B0A8122}">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{38A9B15B-1DD6-4CA7-BE3C-381156C15EFE}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{48D6E6A9-9661-4566-9648-CB5795EE2ECF}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -1603,9 +1606,6 @@
     <t>Quitar espacios en blanco al inicio y al final, y dejar sólo un espacio entre palabras</t>
   </si>
   <si>
-    <t>telefonoCelular</t>
-  </si>
-  <si>
     <t>sólo números enteros</t>
   </si>
   <si>
@@ -1618,12 +1618,6 @@
     <t>Representa el nombre de un residente determinado.</t>
   </si>
   <si>
-    <t>Tipo inmueble</t>
-  </si>
-  <si>
-    <t>Representa un objeto tipo inmueble</t>
-  </si>
-  <si>
     <t>identificador de residente</t>
   </si>
   <si>
@@ -1645,55 +1639,46 @@
     <t>Sólo letras y espacios.</t>
   </si>
   <si>
-    <t>Sólo un valor lógico (Verdadero o Falso).</t>
-  </si>
-  <si>
-    <t>Representa el estado de disponibilidad de una zona común.</t>
-  </si>
-  <si>
     <t>capacidad</t>
   </si>
   <si>
-    <t>disponibilidad</t>
-  </si>
-  <si>
     <t>Sólo un numero entero</t>
   </si>
   <si>
     <t>Representa la capacidad permitida para una zona común.</t>
   </si>
   <si>
-    <t>horaApertura</t>
-  </si>
-  <si>
-    <t>hh:mm:ss</t>
-  </si>
-  <si>
-    <t>Representa la hora de apertura de una zona común.</t>
-  </si>
-  <si>
-    <t>horaCierre</t>
-  </si>
-  <si>
-    <t>Representa la hora de cierre de una zona común.</t>
-  </si>
-  <si>
-    <t>identificador de zona común</t>
-  </si>
-  <si>
     <t>No es posible tener más de una zona común con el mismo numero de identificación.</t>
   </si>
   <si>
-    <t>Residente reserva ZonaComun determinada a fecha determinada</t>
-  </si>
-  <si>
-    <t>No es posible tener la misma zona común reservada varias veces en una misma fecha</t>
-  </si>
-  <si>
-    <t>No es posible tener diferentes zonas comúnes reservadas en una misma fecha</t>
-  </si>
-  <si>
     <t>Inmueble</t>
+  </si>
+  <si>
+    <t>idTipoZonaComun</t>
+  </si>
+  <si>
+    <t>TipoZonaComun</t>
+  </si>
+  <si>
+    <t>identificador unico de zona comun</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxx@xxxxxxxxx.com  donde cada x representa un digito del 0 al 9 o una letra de la "A" a la "Z" y debe terminas en .com o .co</t>
+  </si>
+  <si>
+    <t>Representa el correo del residente el cual va a realizar la reserva.</t>
+  </si>
+  <si>
+    <t>conjuntoResidencial</t>
+  </si>
+  <si>
+    <t>ConjuntoResidencial</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1825,14 +1810,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1997,100 +1976,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,18 +2150,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2285,6 +2168,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2318,86 +2243,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2471,6 +2324,41 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo Dominio anémico contexto"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Residente"/>
+      <sheetName val="Inmueble"/>
+      <sheetName val="ZonaHabitada"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Residente</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Objeto de dominio que representa a un residente que podrá realizar una reserva de una zona común dentro de un conjunto residencial.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2803,10 +2691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2926,11 +2814,11 @@
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2966,7 +2854,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>5</v>
@@ -2981,7 +2869,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
@@ -3017,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B68ADC-CCC4-42ED-9D19-95850731FE60}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3051,73 +2939,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="73" t="str">
+      <c r="B2" s="84" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a cada una de las reservas que son solicitadas dentro de un conjunto residencial donde se ubica una zona comun la cual es la que esa siendo reservada por un residente.</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3172,19 +3060,19 @@
         <v>2</v>
       </c>
       <c r="R4" s="19" t="str">
-        <f>A27</f>
+        <f>A21</f>
         <v>Reponsabilidad 1</v>
       </c>
       <c r="S4" s="20" t="str">
-        <f>A28</f>
+        <f>A22</f>
         <v>Reponsabilidad 2</v>
       </c>
       <c r="T4" s="21" t="str">
-        <f>A29</f>
+        <f>A23</f>
         <v>Reponsabilidad 3</v>
       </c>
       <c r="U4" s="22" t="str">
-        <f>A30</f>
+        <f>A24</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
@@ -3237,7 +3125,7 @@
       <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="60" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="24"/>
@@ -3278,7 +3166,7 @@
       <c r="A7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="60" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="24"/>
@@ -3570,11 +3458,11 @@
       <c r="U13" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
@@ -3594,280 +3482,214 @@
       <c r="B17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="59" t="str">
-        <f>A6</f>
-        <v>Residente</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="59" t="str">
-        <f>A7</f>
-        <v>ZonaComun</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="59" t="str">
-        <f>A9</f>
-        <v>fechaUso</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="61" t="str">
-        <f>A6</f>
-        <v>Residente</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="61" t="str">
-        <f>A7</f>
-        <v>ZonaComun</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="62" t="str">
-        <f>A9</f>
-        <v>fechaUso</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="C17" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79" t="s">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79" t="s">
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79" t="s">
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="94"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="38" t="s">
+      <c r="S19" s="74"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L20" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="38" t="s">
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="38" t="s">
+      <c r="Q20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="39" t="s">
+      <c r="S20" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="98" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="52"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="102" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="57"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
+  <mergeCells count="23">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{872F1B90-753A-4567-B7E0-F963E4885CFE}"/>
-    <hyperlink ref="I30" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{96028159-E62A-4427-AF0A-44F7020D4C1C}"/>
+    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{96028159-E62A-4427-AF0A-44F7020D4C1C}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{B75DAC14-250B-4E3B-B520-AB93689FE407}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{AF6E5F78-78B2-490C-AFD1-DCD8E185D14E}"/>
     <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{6FF77357-DA02-40EC-A804-F56F7DD1FA41}"/>
-    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{E70B60A3-7339-4ECA-8F42-6209F5B2DD9A}"/>
-    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{3CCC1F6B-B284-41A3-8E30-E2B73F01AB49}"/>
-    <hyperlink ref="A30:B30" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{9832566C-3941-4045-8402-97C0F3B00034}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{E70B60A3-7339-4ECA-8F42-6209F5B2DD9A}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{3CCC1F6B-B284-41A3-8E30-E2B73F01AB49}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{9832566C-3941-4045-8402-97C0F3B00034}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{AFC82A9B-C9C4-4E95-8471-7BF22B87E253}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{51773B00-DF91-49B5-A5F9-796AF24DB2EF}"/>
-    <hyperlink ref="A29:B29" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BCB3B9EE-CFE9-499F-8792-DC5504DA5004}"/>
-    <hyperlink ref="C17" location="Reserva!B2" display="Reserva" xr:uid="{301E3BD1-2FBB-41FD-BA8C-0B7BFC051715}"/>
-    <hyperlink ref="C18" location="Residente!B2" display="Residente!B2" xr:uid="{8984EC01-54BD-4953-9ACE-10491D66D25F}"/>
-    <hyperlink ref="C19" location="ZonaComun!B2" display="ZonaComun!B2" xr:uid="{290FB85E-90ED-4D88-9D4E-84495A758834}"/>
-    <hyperlink ref="C20" location="Reserva!A9" display="Reserva!A9" xr:uid="{915FE8E7-C71E-4E4C-84DD-1BAFE7EEE77E}"/>
-    <hyperlink ref="C21" location="Residente!B2" display="Residente!B2" xr:uid="{A78AFFD3-52DA-4BE5-B1A8-C87B8E9EFDBD}"/>
-    <hyperlink ref="C22" location="Reserva!B2" display="Reserva!B2" xr:uid="{6680155B-72C0-4FA5-8B2F-CE94B4918DF7}"/>
-    <hyperlink ref="C23" location="Reserva!A9" display="Reserva!A9" xr:uid="{D735BFD0-5F1A-4677-8D04-9E5C3BBE7BDD}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BCB3B9EE-CFE9-499F-8792-DC5504DA5004}"/>
+    <hyperlink ref="C17" location="Reserva!A5" display="identificador" xr:uid="{301E3BD1-2FBB-41FD-BA8C-0B7BFC051715}"/>
     <hyperlink ref="B7" location="ZonaComun!B2" display="ZonaComun" xr:uid="{3C98B875-6A4C-421E-B86F-51F7822518A4}"/>
     <hyperlink ref="B6" location="Residente!B2" display="Residente" xr:uid="{45EAD413-9644-49E2-952F-5165F0473D56}"/>
   </hyperlinks>
@@ -3890,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37253BB3-D41A-4819-AE6B-7ECDBED96519}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3924,73 +3746,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="73" t="str">
-        <f>'Listado Objetos de Dominio'!A4</f>
+      <c r="B2" s="84" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!B4</f>
-        <v>Objeto de dominio que representa a cada uno de los residentes que son los que viven dentro de un conjunto residencial para generar reservas.</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="B3" s="85" t="str">
+        <f>'[1]Listado Objetos de Dominio'!B3</f>
+        <v>Objeto de dominio que representa a un residente que podrá realizar una reserva de una zona común dentro de un conjunto residencial.</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -4045,19 +3867,19 @@
         <v>2</v>
       </c>
       <c r="R4" s="19" t="str">
-        <f>A16</f>
+        <f>A18</f>
         <v>Reponsabilidad 1</v>
       </c>
       <c r="S4" s="20" t="str">
-        <f>A17</f>
+        <f>A19</f>
         <v>Reponsabilidad 2</v>
       </c>
       <c r="T4" s="21" t="str">
-        <f>A18</f>
+        <f>A20</f>
         <v>Reponsabilidad 3</v>
       </c>
       <c r="U4" s="22" t="str">
-        <f>A19</f>
+        <f>A21</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
@@ -4146,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="29"/>
@@ -4155,7 +3977,7 @@
     </row>
     <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>68</v>
@@ -4167,11 +3989,11 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>33</v>
@@ -4189,32 +4011,38 @@
         <v>33</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="28"/>
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
       <c r="U7" s="31"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>50</v>
+      </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="24" t="s">
-        <v>96</v>
+      <c r="I8" s="92" t="s">
+        <v>112</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="24" t="s">
@@ -4230,250 +4058,305 @@
         <v>33</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="R8" s="28"/>
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
       <c r="U8" s="31"/>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+    </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C13" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+    <row r="14" spans="1:21" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79" t="s">
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79" t="s">
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79" t="s">
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="94"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="38" t="s">
+      <c r="S16" s="74"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="90"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J17" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L17" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="38" t="s">
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q17" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S17" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="95" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A203049D-4A94-4ED6-B725-631FC8E16A5D}"/>
-    <hyperlink ref="I19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{AB7B9B6F-4CEE-4A6B-8EE2-436B11DC60B1}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{1E7DD677-0C31-4EA4-A1A8-208568C84158}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{249DFDC1-E51F-4D73-938F-1CC4CA7C38FE}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{AF7B2DA8-3DA2-4A8C-A9C5-0CD85649E797}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{EE03E1A2-6B71-4B5E-A162-ED2E61938759}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{36146D35-C965-4D36-A4DB-5ADCE71D0C80}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{15AFCFF5-4EE1-4597-9983-EC91E017C05D}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{9A79657D-B46A-4DD6-BBE9-9E0BC5179DE1}"/>
-    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A1679FC4-EB1B-4BEB-92C3-BA8C3FC1497D}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{866FEE97-B452-4D17-9242-0C99FCBF4F17}"/>
-    <hyperlink ref="C12" location="Residente!B2" display="Residente" xr:uid="{9DE88B15-D357-4D36-AC95-0E93E3FC0F17}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B97A622A-3855-4AF9-949F-BB06141355D0}"/>
+    <hyperlink ref="I21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{F7C0A4EF-1BA3-4D9B-9919-3488376C423A}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{D721FF87-3F12-458D-9DD8-781FE93876E8}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{19AD91BE-1850-408C-B669-E06CD56FC6E4}"/>
+    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{95842CC5-F765-4034-85C3-88114A3ECBA0}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{BDB88B3E-99BB-4B02-B20B-670D3E90F635}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{5166302E-7BA1-4227-816D-E5C80614A5A0}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{9D2DAAA6-765A-4868-A455-9EFA73801CB7}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{C2F32BC7-750A-46F2-AB21-352BE180CE2F}"/>
+    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{7D1BA7C0-6832-4622-8C3C-4CDD7DDADD25}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{4E2B6C98-C68D-43A4-ADD0-A20E66061C25}"/>
+    <hyperlink ref="C14" location="Residente!A5" display="identificador" xr:uid="{ABBFC962-6707-4D00-ADE7-23E0123DDA7F}"/>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{0D6701A1-B89D-4F70-93C6-B192457563CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4491,7 +4374,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87E743-BFE3-415C-A07F-E9D05CC8A77D}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -4525,73 +4408,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="73" t="str">
+      <c r="B2" s="84" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -4646,19 +4529,19 @@
         <v>2</v>
       </c>
       <c r="R4" s="19" t="str">
+        <f>A16</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="S4" s="20" t="str">
+        <f>A17</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="T4" s="21" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="20" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="U4" s="22" t="str">
         <f>A19</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="21" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="22" t="str">
-        <f>A21</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
@@ -4680,7 +4563,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="26"/>
@@ -4725,7 +4608,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="26" t="s">
@@ -4747,7 +4630,7 @@
         <v>33</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="29"/>
@@ -4756,10 +4639,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -4768,18 +4651,18 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>33</v>
@@ -4788,7 +4671,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="R7" s="28"/>
       <c r="S7" s="29"/>
@@ -4797,10 +4680,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -4808,352 +4691,256 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>115</v>
-      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="28"/>
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
       <c r="U8" s="31"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="s">
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="31"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="C12" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="74"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="90"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="S16" s="94"/>
+      <c r="A16" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="80"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
-      <c r="H17" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>47</v>
-      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
+      <c r="A18" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="102" t="s">
+      <c r="A19" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L15:O15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0AFD9DDF-623F-4311-AA6E-46B54930F082}"/>
-    <hyperlink ref="I21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{4EDB43E5-BE17-41D8-8800-52F51FD93854}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{BC9A4B71-B052-4F46-A1BC-C1E99B8FD050}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{792126A7-6EA0-4311-AA5A-E15D45829379}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{C156A639-52D2-47A9-8514-D3BAEAD5DD19}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{9CA994E3-CD44-47C6-9AE5-A79AAAC3F615}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{04FA01FC-DB5C-42E7-90FE-0D4E7C548C45}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{48F18C83-A215-4E58-9C21-2FCD198B8541}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{0DAF9702-1DC9-4A41-BC2E-051C5CEB8F30}"/>
-    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{6596B9E2-97B2-4BF6-94F9-CB797BE42B45}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{4B49971C-799B-4D6F-A757-20EEF23D997E}"/>
-    <hyperlink ref="C14" location="ZonasComun!B2" display="ZonaComun" xr:uid="{9DEE591E-9E01-4642-849A-8CA3FB7B8735}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{1F31A925-903F-4506-84DF-2F3FD925DD7C}"/>
+    <hyperlink ref="I19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{BABCF093-7167-4F32-A43A-7F34A4E8DDC6}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{94605B04-142B-4D0A-BCB7-9091E5E0FFF4}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{156A4C4E-1336-49D9-84B1-C81C239EFFCB}"/>
+    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{61F03B61-0999-4732-8597-7539D44D26B6}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{53AD56B2-35D1-4A8B-82E7-272EBDCCB04B}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{AA8B8B54-915B-4415-9FBF-512D4A42518A}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{A8122258-24D7-4A0E-B17F-06C28BD484C9}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{A735C8AE-E5FB-49FA-9B21-F9F09570780B}"/>
+    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{8AD2010A-4A73-46AB-BA8B-D0B4B26ECC6A}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BEDFCA75-B08F-413D-A297-82A286BC2C54}"/>
+    <hyperlink ref="C12" location="ZonaComun!A5" display="identificador" xr:uid="{5D11B91E-10DF-4E36-9DD4-86BE5DFDA74B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
